--- a/biology/Botanique/Neottieae/Neottieae.xlsx
+++ b/biology/Botanique/Neottieae/Neottieae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La tribu des Neottieae regroupe des plantes de la famille des Orchidaceae, de la sous-famille des Epidendroideae.
-Il en est fait mention pour la première fois en 1826 dans la classification des Orchidées par John Lindley[1].
+Il en est fait mention pour la première fois en 1826 dans la classification des Orchidées par John Lindley.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description et biologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des orchidées terrestres, géophytes dont certaines espèces sont dépourvues de chlorophylle (Neottia nidus-avis).
 </t>
@@ -543,16 +557,53 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Depuis l'introduction de la classification phylogénétique et une première classification établie par Robert Louis Dressler en 1993[2], cette tribu est toujours considérée comme formant un groupe monophylétique.
-Selon NCBI  (5 oct. 2019)[3]
-Aphyllorchis Blume 1825.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis l'introduction de la classification phylogénétique et une première classification établie par Robert Louis Dressler en 1993, cette tribu est toujours considérée comme formant un groupe monophylétique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Neottieae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Neottieae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (5 oct. 2019)[3]</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Aphyllorchis Blume 1825.
 Cephalanthera Rich. 1818.
-Eburophyton A.Heller 1904. (synonyme de Cephalanthera selon Kew)[4]
+Eburophyton A.Heller 1904. (synonyme de Cephalanthera selon Kew)
 Epipactis Zinn 1757.
 Limodorum Boehm. 1760.
-Listera R.Br. in W.T.Aiton 1813. (synonyme de Neottia selon Kew)[5]
+Listera R.Br. in W.T.Aiton 1813. (synonyme de Neottia selon Kew)
 Neottia Guett. 1754.
 Palmorchis Barb.Rodr. 1877.</t>
         </is>
